--- a/events.xlsx
+++ b/events.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
